--- a/public/assets/result/Latifah_3.xlsx
+++ b/public/assets/result/Latifah_3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -187,13 +187,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>ATMUJI</t>
+    <t>LATIFAH</t>
   </si>
 </sst>
 </file>
@@ -946,19 +943,19 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13"/>
     </row>
@@ -983,19 +980,19 @@
         <v>24</v>
       </c>
       <c r="I14" s="5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J14" s="5">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="K14" s="5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L14" s="5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14"/>
     </row>
@@ -1020,16 +1017,16 @@
         <v>24</v>
       </c>
       <c r="I15" s="5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J15" s="5">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="K15" s="5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L15" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
@@ -1094,16 +1091,16 @@
         <v>28</v>
       </c>
       <c r="I17" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J17" s="5">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K17" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L17" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -1131,16 +1128,16 @@
         <v>29</v>
       </c>
       <c r="I18" s="5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J18" s="5">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K18" s="5">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="L18" s="5">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -1168,16 +1165,16 @@
         <v>30</v>
       </c>
       <c r="I19" s="5">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J19" s="5">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="K19" s="5">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="L19" s="5">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1205,19 +1202,19 @@
         <v>24</v>
       </c>
       <c r="I20" s="5">
+        <v>9</v>
+      </c>
+      <c r="J20" s="5">
         <v>15</v>
       </c>
-      <c r="J20" s="5">
-        <v>25</v>
-      </c>
       <c r="K20" s="5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L20" s="5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20"/>
     </row>
@@ -1279,16 +1276,16 @@
         <v>34</v>
       </c>
       <c r="I22" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J22" s="5">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="K22" s="5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L22" s="5">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M22" s="5">
         <v>2</v>
@@ -1316,16 +1313,16 @@
         <v>30</v>
       </c>
       <c r="I23" s="5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J23" s="5">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K23" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="L23" s="5">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="M23" s="5">
         <v>2</v>
@@ -1353,19 +1350,19 @@
         <v>24</v>
       </c>
       <c r="I24" s="5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J24" s="5">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K24" s="5">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L24" s="5">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24"/>
     </row>
@@ -1427,19 +1424,19 @@
         <v>28</v>
       </c>
       <c r="I26" s="5">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J26" s="5">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="K26" s="5">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="L26" s="5">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="M26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26"/>
     </row>
@@ -1464,16 +1461,16 @@
         <v>24</v>
       </c>
       <c r="I27" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J27" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K27" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L27" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -1501,16 +1498,16 @@
         <v>34</v>
       </c>
       <c r="I28" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J28" s="5">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K28" s="5">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L28" s="5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M28" s="5">
         <v>2</v>
@@ -1538,19 +1535,19 @@
         <v>29</v>
       </c>
       <c r="I29" s="5">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J29" s="5">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K29" s="5">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="L29" s="5">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29"/>
     </row>
@@ -1649,19 +1646,19 @@
         <v>29</v>
       </c>
       <c r="I32" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="K32" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L32" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32"/>
     </row>
@@ -1686,19 +1683,19 @@
         <v>30</v>
       </c>
       <c r="I33" s="5">
+        <v>3</v>
+      </c>
+      <c r="J33" s="5">
+        <v>34</v>
+      </c>
+      <c r="K33" s="5">
         <v>6</v>
       </c>
-      <c r="J33" s="5">
-        <v>64</v>
-      </c>
-      <c r="K33" s="5">
-        <v>12</v>
-      </c>
       <c r="L33" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M33" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33"/>
     </row>
@@ -1723,16 +1720,16 @@
         <v>46</v>
       </c>
       <c r="I34" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J34" s="5">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="K34" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L34" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M34" s="5">
         <v>2</v>
@@ -1760,16 +1757,16 @@
         <v>28</v>
       </c>
       <c r="I35" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="K35" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L35" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M35" s="5">
         <v>2</v>
@@ -1797,16 +1794,16 @@
         <v>34</v>
       </c>
       <c r="I36" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J36" s="5">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="K36" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L36" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M36" s="5">
         <v>2</v>
@@ -1834,19 +1831,19 @@
         <v>46</v>
       </c>
       <c r="I37" s="5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="K37" s="5">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="L37" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="M37" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37"/>
     </row>
@@ -1908,16 +1905,16 @@
         <v>28</v>
       </c>
       <c r="I39" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J39" s="5">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="K39" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L39" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M39" s="5">
         <v>2</v>
@@ -1945,19 +1942,19 @@
         <v>29</v>
       </c>
       <c r="I40" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J40" s="5">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K40" s="5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L40" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M40" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40"/>
     </row>
@@ -2019,16 +2016,16 @@
         <v>30</v>
       </c>
       <c r="I42" s="5">
+        <v>5</v>
+      </c>
+      <c r="J42" s="5">
         <v>14</v>
       </c>
-      <c r="J42" s="5">
-        <v>36</v>
-      </c>
       <c r="K42" s="5">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L42" s="5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M42" s="5">
         <v>2</v>
@@ -2080,9 +2077,7 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="K48" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="N48" s="1"/>
     </row>
@@ -2098,10 +2093,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="D51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="L51" s="4"/>
       <c r="N51" s="1"/>
